--- a/Team-Data/2011-12/1-3-2011-12.xlsx
+++ b/Team-Data/2011-12/1-3-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,160 +733,160 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.667</v>
+        <v>0.8</v>
       </c>
       <c r="H2" t="n">
         <v>48</v>
       </c>
       <c r="I2" t="n">
-        <v>34.8</v>
+        <v>36.2</v>
       </c>
       <c r="J2" t="n">
         <v>80</v>
       </c>
       <c r="K2" t="n">
-        <v>0.435</v>
+        <v>0.453</v>
       </c>
       <c r="L2" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="M2" t="n">
-        <v>18</v>
+        <v>18.6</v>
       </c>
       <c r="N2" t="n">
-        <v>0.389</v>
+        <v>0.409</v>
       </c>
       <c r="O2" t="n">
-        <v>18.3</v>
+        <v>19.2</v>
       </c>
       <c r="P2" t="n">
-        <v>25.8</v>
+        <v>26</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.71</v>
+        <v>0.738</v>
       </c>
       <c r="R2" t="n">
-        <v>11.5</v>
+        <v>11.8</v>
       </c>
       <c r="S2" t="n">
-        <v>31.5</v>
+        <v>31</v>
       </c>
       <c r="T2" t="n">
-        <v>43</v>
+        <v>42.8</v>
       </c>
       <c r="U2" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="V2" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="W2" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X2" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.5</v>
+        <v>18.8</v>
       </c>
       <c r="AA2" t="n">
         <v>21</v>
       </c>
       <c r="AB2" t="n">
-        <v>95</v>
+        <v>99.2</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.300000000000001</v>
+        <v>11.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AE2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AH2" t="n">
         <v>3</v>
       </c>
       <c r="AI2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>17</v>
       </c>
-      <c r="AJ2" t="n">
-        <v>15</v>
-      </c>
       <c r="AK2" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AL2" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AM2" t="n">
         <v>15</v>
       </c>
       <c r="AN2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP2" t="n">
         <v>8</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AQ2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR2" t="n">
         <v>11</v>
       </c>
-      <c r="AP2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
+        <v>16</v>
+      </c>
+      <c r="AT2" t="n">
         <v>14</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>12</v>
       </c>
       <c r="AU2" t="n">
         <v>19</v>
       </c>
       <c r="AV2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW2" t="n">
         <v>14</v>
       </c>
       <c r="AX2" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA2" t="n">
         <v>16</v>
       </c>
-      <c r="AY2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>3</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>17</v>
-      </c>
       <c r="BB2" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BC2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-3-2011-12</t>
+          <t>2012-01-03</t>
         </is>
       </c>
     </row>
@@ -926,34 +993,34 @@
         <v>-0.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG3" t="n">
         <v>10</v>
       </c>
-      <c r="AF3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG3" t="n">
+      <c r="AH3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI3" t="n">
         <v>12</v>
       </c>
-      <c r="AH3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>13</v>
-      </c>
       <c r="AJ3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK3" t="n">
         <v>3</v>
       </c>
       <c r="AL3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AM3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AN3" t="n">
         <v>1</v>
@@ -962,7 +1029,7 @@
         <v>15</v>
       </c>
       <c r="AP3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ3" t="n">
         <v>12</v>
@@ -980,10 +1047,10 @@
         <v>3</v>
       </c>
       <c r="AV3" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AW3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AX3" t="n">
         <v>8</v>
@@ -992,16 +1059,16 @@
         <v>30</v>
       </c>
       <c r="AZ3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA3" t="n">
         <v>24</v>
       </c>
       <c r="BB3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-3-2011-12</t>
+          <t>2012-01-03</t>
         </is>
       </c>
     </row>
@@ -1030,127 +1097,127 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="H4" t="n">
         <v>48</v>
       </c>
       <c r="I4" t="n">
-        <v>36.4</v>
+        <v>35.5</v>
       </c>
       <c r="J4" t="n">
-        <v>86.59999999999999</v>
+        <v>85.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0.42</v>
+        <v>0.414</v>
       </c>
       <c r="L4" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="M4" t="n">
-        <v>16.8</v>
+        <v>17.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0.31</v>
+        <v>0.314</v>
       </c>
       <c r="O4" t="n">
-        <v>14.2</v>
+        <v>13.5</v>
       </c>
       <c r="P4" t="n">
         <v>19</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.747</v>
+        <v>0.711</v>
       </c>
       <c r="R4" t="n">
-        <v>12.6</v>
+        <v>13.3</v>
       </c>
       <c r="S4" t="n">
-        <v>33.8</v>
+        <v>33.3</v>
       </c>
       <c r="T4" t="n">
-        <v>46.4</v>
+        <v>46.5</v>
       </c>
       <c r="U4" t="n">
-        <v>21.6</v>
+        <v>22</v>
       </c>
       <c r="V4" t="n">
-        <v>15.8</v>
+        <v>16.5</v>
       </c>
       <c r="W4" t="n">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="X4" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AA4" t="n">
-        <v>18</v>
+        <v>17.8</v>
       </c>
       <c r="AB4" t="n">
-        <v>92.2</v>
+        <v>90</v>
       </c>
       <c r="AC4" t="n">
-        <v>-14.8</v>
+        <v>-15</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AE4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF4" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH4" t="n">
         <v>3</v>
       </c>
       <c r="AI4" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AJ4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK4" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AL4" t="n">
         <v>22</v>
       </c>
       <c r="AM4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AN4" t="n">
         <v>18</v>
       </c>
       <c r="AO4" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AP4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ4" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AR4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AS4" t="n">
         <v>6</v>
@@ -1165,22 +1232,22 @@
         <v>23</v>
       </c>
       <c r="AW4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AX4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA4" t="n">
         <v>29</v>
       </c>
       <c r="BB4" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="BC4" t="n">
         <v>30</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-3-2011-12</t>
+          <t>2012-01-03</t>
         </is>
       </c>
     </row>
@@ -1212,157 +1279,157 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.833</v>
+        <v>0.8</v>
       </c>
       <c r="H5" t="n">
         <v>48</v>
       </c>
       <c r="I5" t="n">
-        <v>36.2</v>
+        <v>38.2</v>
       </c>
       <c r="J5" t="n">
-        <v>81.7</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>0.443</v>
+        <v>0.462</v>
       </c>
       <c r="L5" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="M5" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="N5" t="n">
-        <v>0.378</v>
+        <v>0.407</v>
       </c>
       <c r="O5" t="n">
-        <v>18.3</v>
+        <v>18</v>
       </c>
       <c r="P5" t="n">
-        <v>24.3</v>
+        <v>24</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.753</v>
+        <v>0.75</v>
       </c>
       <c r="R5" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="S5" t="n">
-        <v>32.5</v>
+        <v>31.8</v>
       </c>
       <c r="T5" t="n">
-        <v>46</v>
+        <v>45.8</v>
       </c>
       <c r="U5" t="n">
-        <v>21.8</v>
+        <v>23</v>
       </c>
       <c r="V5" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="W5" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X5" t="n">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z5" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA5" t="n">
-        <v>19.2</v>
+        <v>19.6</v>
       </c>
       <c r="AB5" t="n">
-        <v>96.8</v>
+        <v>101</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.699999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF5" t="n">
         <v>1</v>
       </c>
       <c r="AG5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH5" t="n">
         <v>3</v>
       </c>
       <c r="AI5" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AJ5" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AK5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL5" t="n">
         <v>16</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>17</v>
       </c>
       <c r="AM5" t="n">
         <v>21</v>
       </c>
       <c r="AN5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AP5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS5" t="n">
         <v>13</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>3</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>11</v>
       </c>
       <c r="AT5" t="n">
         <v>6</v>
       </c>
       <c r="AU5" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AV5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AW5" t="n">
         <v>15</v>
       </c>
       <c r="AX5" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AY5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ5" t="n">
         <v>12</v>
       </c>
       <c r="BA5" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BB5" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="BC5" t="n">
         <v>2</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-3-2011-12</t>
+          <t>2012-01-03</t>
         </is>
       </c>
     </row>
@@ -1394,106 +1461,106 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
         <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H6" t="n">
-        <v>49</v>
+        <v>49.3</v>
       </c>
       <c r="I6" t="n">
-        <v>38.4</v>
+        <v>36.8</v>
       </c>
       <c r="J6" t="n">
-        <v>82.2</v>
+        <v>80.3</v>
       </c>
       <c r="K6" t="n">
-        <v>0.467</v>
+        <v>0.458</v>
       </c>
       <c r="L6" t="n">
-        <v>8.800000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="M6" t="n">
         <v>20.8</v>
       </c>
       <c r="N6" t="n">
-        <v>0.423</v>
+        <v>0.41</v>
       </c>
       <c r="O6" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="P6" t="n">
-        <v>23.6</v>
+        <v>23</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.653</v>
+        <v>0.674</v>
       </c>
       <c r="R6" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="S6" t="n">
-        <v>29.6</v>
+        <v>29</v>
       </c>
       <c r="T6" t="n">
-        <v>40.6</v>
+        <v>40.5</v>
       </c>
       <c r="U6" t="n">
-        <v>22.2</v>
+        <v>21.5</v>
       </c>
       <c r="V6" t="n">
-        <v>15.6</v>
+        <v>17.3</v>
       </c>
       <c r="W6" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="X6" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.8</v>
+        <v>21.3</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>101</v>
+        <v>97.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>6.2</v>
+        <v>4.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AE6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG6" t="n">
         <v>10</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>9</v>
       </c>
       <c r="AH6" t="n">
         <v>1</v>
       </c>
       <c r="AI6" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AJ6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK6" t="n">
         <v>10</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>5</v>
       </c>
       <c r="AL6" t="n">
         <v>3</v>
@@ -1502,52 +1569,52 @@
         <v>10</v>
       </c>
       <c r="AN6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO6" t="n">
         <v>24</v>
       </c>
       <c r="AP6" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AQ6" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AR6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS6" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AT6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU6" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AV6" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AW6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX6" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AY6" t="n">
         <v>26</v>
       </c>
       <c r="AZ6" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BA6" t="n">
+        <v>15</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC6" t="n">
         <v>12</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>5</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>7</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-3-2011-12</t>
+          <t>2012-01-03</t>
         </is>
       </c>
     </row>
@@ -1654,13 +1721,13 @@
         <v>-4.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AF7" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AG7" t="n">
         <v>26</v>
@@ -1678,7 +1745,7 @@
         <v>21</v>
       </c>
       <c r="AL7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM7" t="n">
         <v>4</v>
@@ -1687,10 +1754,10 @@
         <v>20</v>
       </c>
       <c r="AO7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ7" t="n">
         <v>10</v>
@@ -1705,10 +1772,10 @@
         <v>27</v>
       </c>
       <c r="AU7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AV7" t="n">
         <v>16</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>15</v>
       </c>
       <c r="AW7" t="n">
         <v>2</v>
@@ -1717,19 +1784,19 @@
         <v>27</v>
       </c>
       <c r="AY7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BC7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-3-2011-12</t>
+          <t>2012-01-03</t>
         </is>
       </c>
     </row>
@@ -1836,43 +1903,43 @@
         <v>6.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH8" t="n">
         <v>3</v>
       </c>
       <c r="AI8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM8" t="n">
         <v>8</v>
       </c>
       <c r="AN8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO8" t="n">
         <v>2</v>
       </c>
       <c r="AP8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ8" t="n">
         <v>11</v>
@@ -1881,16 +1948,16 @@
         <v>27</v>
       </c>
       <c r="AS8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AT8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-3-2011-12</t>
+          <t>2012-01-03</t>
         </is>
       </c>
     </row>
@@ -2018,16 +2085,16 @@
         <v>-4</v>
       </c>
       <c r="AD9" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE9" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AF9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH9" t="n">
         <v>3</v>
@@ -2039,7 +2106,7 @@
         <v>26</v>
       </c>
       <c r="AK9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL9" t="n">
         <v>20</v>
@@ -2057,7 +2124,7 @@
         <v>29</v>
       </c>
       <c r="AQ9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR9" t="n">
         <v>18</v>
@@ -2069,13 +2136,13 @@
         <v>25</v>
       </c>
       <c r="AU9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV9" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AW9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX9" t="n">
         <v>30</v>
@@ -2087,13 +2154,13 @@
         <v>5</v>
       </c>
       <c r="BA9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB9" t="n">
         <v>27</v>
       </c>
       <c r="BC9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-3-2011-12</t>
+          <t>2012-01-03</t>
         </is>
       </c>
     </row>
@@ -2200,34 +2267,34 @@
         <v>-7.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE10" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AF10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH10" t="n">
         <v>3</v>
       </c>
       <c r="AI10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ10" t="n">
         <v>20</v>
       </c>
       <c r="AK10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL10" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AM10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN10" t="n">
         <v>21</v>
@@ -2242,10 +2309,10 @@
         <v>26</v>
       </c>
       <c r="AR10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT10" t="n">
         <v>12</v>
@@ -2254,28 +2321,28 @@
         <v>14</v>
       </c>
       <c r="AV10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ10" t="n">
+        <v>24</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>26</v>
+      </c>
+      <c r="BB10" t="n">
         <v>25</v>
       </c>
-      <c r="BA10" t="n">
+      <c r="BC10" t="n">
         <v>25</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>26</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>26</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-3-2011-12</t>
+          <t>2012-01-03</t>
         </is>
       </c>
     </row>
@@ -2304,106 +2371,106 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
         <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H11" t="n">
         <v>48</v>
       </c>
       <c r="I11" t="n">
-        <v>38.4</v>
+        <v>37.8</v>
       </c>
       <c r="J11" t="n">
-        <v>84.8</v>
+        <v>82</v>
       </c>
       <c r="K11" t="n">
-        <v>0.453</v>
+        <v>0.46</v>
       </c>
       <c r="L11" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M11" t="n">
-        <v>26.4</v>
+        <v>25.3</v>
       </c>
       <c r="N11" t="n">
-        <v>0.348</v>
+        <v>0.347</v>
       </c>
       <c r="O11" t="n">
-        <v>11.4</v>
+        <v>12.8</v>
       </c>
       <c r="P11" t="n">
-        <v>14.2</v>
+        <v>16</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.803</v>
+        <v>0.797</v>
       </c>
       <c r="R11" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S11" t="n">
-        <v>30.4</v>
+        <v>31</v>
       </c>
       <c r="T11" t="n">
-        <v>40.6</v>
+        <v>41.3</v>
       </c>
       <c r="U11" t="n">
-        <v>23.8</v>
+        <v>23</v>
       </c>
       <c r="V11" t="n">
-        <v>12.2</v>
+        <v>13.3</v>
       </c>
       <c r="W11" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="X11" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>97</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF11" t="n">
         <v>7</v>
       </c>
-      <c r="X11" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>97.40000000000001</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>-1.4</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>13</v>
-      </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AH11" t="n">
         <v>3</v>
       </c>
       <c r="AI11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ11" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AK11" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AL11" t="n">
         <v>2</v>
@@ -2421,43 +2488,43 @@
         <v>30</v>
       </c>
       <c r="AQ11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AR11" t="n">
         <v>19</v>
       </c>
       <c r="AS11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AT11" t="n">
         <v>19</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>20</v>
       </c>
       <c r="AU11" t="n">
         <v>4</v>
       </c>
       <c r="AV11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW11" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AX11" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="AY11" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AZ11" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="BA11" t="n">
         <v>30</v>
       </c>
       <c r="BB11" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BC11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-3-2011-12</t>
+          <t>2012-01-03</t>
         </is>
       </c>
     </row>
@@ -2564,10 +2631,10 @@
         <v>6</v>
       </c>
       <c r="AD12" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF12" t="n">
         <v>1</v>
@@ -2576,10 +2643,10 @@
         <v>3</v>
       </c>
       <c r="AH12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ12" t="n">
         <v>5</v>
@@ -2588,7 +2655,7 @@
         <v>26</v>
       </c>
       <c r="AL12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM12" t="n">
         <v>24</v>
@@ -2597,10 +2664,10 @@
         <v>2</v>
       </c>
       <c r="AO12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP12" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AQ12" t="n">
         <v>8</v>
@@ -2609,16 +2676,16 @@
         <v>4</v>
       </c>
       <c r="AS12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU12" t="n">
         <v>20</v>
       </c>
       <c r="AV12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW12" t="n">
         <v>4</v>
@@ -2630,16 +2697,16 @@
         <v>27</v>
       </c>
       <c r="AZ12" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB12" t="n">
         <v>15</v>
       </c>
-      <c r="BA12" t="n">
-        <v>10</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>13</v>
-      </c>
       <c r="BC12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-3-2011-12</t>
+          <t>2012-01-03</t>
         </is>
       </c>
     </row>
@@ -2746,28 +2813,28 @@
         <v>-3.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AE13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI13" t="n">
         <v>14</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>15</v>
       </c>
       <c r="AJ13" t="n">
         <v>25</v>
       </c>
       <c r="AK13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL13" t="n">
         <v>12</v>
@@ -2776,16 +2843,16 @@
         <v>11</v>
       </c>
       <c r="AN13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP13" t="n">
         <v>4</v>
       </c>
       <c r="AQ13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AR13" t="n">
         <v>20</v>
@@ -2797,16 +2864,16 @@
         <v>29</v>
       </c>
       <c r="AU13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW13" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AX13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY13" t="n">
         <v>2</v>
@@ -2815,10 +2882,10 @@
         <v>4</v>
       </c>
       <c r="BA13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC13" t="n">
         <v>21</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-3-2011-12</t>
+          <t>2012-01-03</t>
         </is>
       </c>
     </row>
@@ -2850,106 +2917,106 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
         <v>3</v>
       </c>
       <c r="G14" t="n">
-        <v>0.571</v>
+        <v>0.5</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>36.6</v>
+        <v>35.8</v>
       </c>
       <c r="J14" t="n">
-        <v>80</v>
+        <v>80.3</v>
       </c>
       <c r="K14" t="n">
-        <v>0.457</v>
+        <v>0.446</v>
       </c>
       <c r="L14" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="M14" t="n">
-        <v>17.9</v>
+        <v>18.5</v>
       </c>
       <c r="N14" t="n">
-        <v>0.248</v>
+        <v>0.234</v>
       </c>
       <c r="O14" t="n">
-        <v>17.1</v>
+        <v>16.5</v>
       </c>
       <c r="P14" t="n">
-        <v>23.4</v>
+        <v>22.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.732</v>
+        <v>0.723</v>
       </c>
       <c r="R14" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="S14" t="n">
-        <v>34.1</v>
+        <v>32.7</v>
       </c>
       <c r="T14" t="n">
-        <v>45.7</v>
+        <v>44.5</v>
       </c>
       <c r="U14" t="n">
-        <v>21.6</v>
+        <v>21</v>
       </c>
       <c r="V14" t="n">
         <v>15.3</v>
       </c>
       <c r="W14" t="n">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="X14" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="Z14" t="n">
-        <v>22.4</v>
+        <v>23.7</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.1</v>
+        <v>20.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>94.7</v>
+        <v>92.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AF14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH14" t="n">
         <v>3</v>
       </c>
       <c r="AI14" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AJ14" t="n">
         <v>15</v>
       </c>
       <c r="AK14" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AL14" t="n">
         <v>25</v>
@@ -2961,49 +3028,49 @@
         <v>28</v>
       </c>
       <c r="AO14" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AP14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR14" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AS14" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AT14" t="n">
         <v>8</v>
       </c>
       <c r="AU14" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AV14" t="n">
         <v>18</v>
       </c>
       <c r="AW14" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AX14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY14" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AZ14" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="BA14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB14" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="BC14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-3-2011-12</t>
+          <t>2012-01-03</t>
         </is>
       </c>
     </row>
@@ -3032,106 +3099,106 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="H15" t="n">
         <v>48</v>
       </c>
       <c r="I15" t="n">
-        <v>37.8</v>
+        <v>34.8</v>
       </c>
       <c r="J15" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K15" t="n">
-        <v>0.455</v>
+        <v>0.429</v>
       </c>
       <c r="L15" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="M15" t="n">
-        <v>9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="N15" t="n">
-        <v>0.178</v>
+        <v>0.162</v>
       </c>
       <c r="O15" t="n">
-        <v>16.2</v>
+        <v>17.5</v>
       </c>
       <c r="P15" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.707</v>
+      </c>
+      <c r="R15" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>31</v>
+      </c>
+      <c r="T15" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="U15" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="V15" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="W15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>-9</v>
+      </c>
+      <c r="AD15" t="n">
         <v>23</v>
       </c>
-      <c r="Q15" t="n">
-        <v>0.704</v>
-      </c>
-      <c r="R15" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="S15" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="T15" t="n">
-        <v>44.4</v>
-      </c>
-      <c r="U15" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="V15" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="W15" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="X15" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>93.40000000000001</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>-3.8</v>
-      </c>
-      <c r="AD15" t="n">
+      <c r="AE15" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>27</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>13</v>
       </c>
-      <c r="AE15" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>6</v>
-      </c>
       <c r="AK15" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AL15" t="n">
         <v>30</v>
@@ -3143,49 +3210,49 @@
         <v>30</v>
       </c>
       <c r="AO15" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AP15" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AQ15" t="n">
         <v>24</v>
       </c>
       <c r="AR15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AS15" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AT15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU15" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AV15" t="n">
         <v>29</v>
       </c>
       <c r="AW15" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AX15" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AY15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ15" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA15" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BB15" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="BC15" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-3-2011-12</t>
+          <t>2012-01-03</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE16" t="n">
         <v>1</v>
@@ -3316,7 +3383,7 @@
         <v>1</v>
       </c>
       <c r="AL16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM16" t="n">
         <v>29</v>
@@ -3325,40 +3392,40 @@
         <v>4</v>
       </c>
       <c r="AO16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP16" t="n">
         <v>5</v>
       </c>
       <c r="AQ16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR16" t="n">
         <v>29</v>
       </c>
       <c r="AS16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU16" t="n">
         <v>1</v>
       </c>
       <c r="AV16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AW16" t="n">
         <v>3</v>
       </c>
       <c r="AX16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY16" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA16" t="n">
         <v>5</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-3-2011-12</t>
+          <t>2012-01-03</t>
         </is>
       </c>
     </row>
@@ -3396,115 +3463,115 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17" t="n">
         <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
       </c>
       <c r="I17" t="n">
-        <v>35.8</v>
+        <v>37.5</v>
       </c>
       <c r="J17" t="n">
-        <v>86.8</v>
+        <v>84.8</v>
       </c>
       <c r="K17" t="n">
-        <v>0.412</v>
+        <v>0.442</v>
       </c>
       <c r="L17" t="n">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="M17" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="O17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="P17" t="n">
         <v>19.8</v>
       </c>
-      <c r="N17" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="O17" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="P17" t="n">
-        <v>19</v>
-      </c>
       <c r="Q17" t="n">
-        <v>0.747</v>
+        <v>0.734</v>
       </c>
       <c r="R17" t="n">
-        <v>13.2</v>
+        <v>10.8</v>
       </c>
       <c r="S17" t="n">
-        <v>30.8</v>
+        <v>32.3</v>
       </c>
       <c r="T17" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U17" t="n">
-        <v>21.2</v>
+        <v>22.5</v>
       </c>
       <c r="V17" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W17" t="n">
         <v>8</v>
       </c>
       <c r="X17" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.8</v>
+        <v>4.3</v>
       </c>
       <c r="Z17" t="n">
-        <v>21.2</v>
+        <v>21.8</v>
       </c>
       <c r="AA17" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>95.3</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL17" t="n">
         <v>21</v>
       </c>
-      <c r="AB17" t="n">
-        <v>90.8</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>14</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>24</v>
-      </c>
       <c r="AM17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN17" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AO17" t="n">
         <v>27</v>
@@ -3513,22 +3580,22 @@
         <v>27</v>
       </c>
       <c r="AQ17" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AR17" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AS17" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AT17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AU17" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AV17" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AW17" t="n">
         <v>13</v>
@@ -3537,19 +3604,19 @@
         <v>12</v>
       </c>
       <c r="AY17" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="AZ17" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BA17" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="BB17" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="BC17" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-3-2011-12</t>
+          <t>2012-01-03</t>
         </is>
       </c>
     </row>
@@ -3656,28 +3723,28 @@
         <v>3.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE18" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AF18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH18" t="n">
         <v>3</v>
       </c>
       <c r="AI18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ18" t="n">
         <v>23</v>
       </c>
       <c r="AK18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL18" t="n">
         <v>4</v>
@@ -3686,19 +3753,19 @@
         <v>6</v>
       </c>
       <c r="AN18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP18" t="n">
         <v>8</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>9</v>
       </c>
       <c r="AQ18" t="n">
         <v>22</v>
       </c>
       <c r="AR18" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AS18" t="n">
         <v>2</v>
@@ -3719,19 +3786,19 @@
         <v>29</v>
       </c>
       <c r="AY18" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AZ18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB18" t="n">
         <v>6</v>
       </c>
       <c r="BC18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-3-2011-12</t>
+          <t>2012-01-03</t>
         </is>
       </c>
     </row>
@@ -3838,10 +3905,10 @@
         <v>-13.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF19" t="n">
         <v>29</v>
@@ -3868,7 +3935,7 @@
         <v>5</v>
       </c>
       <c r="AN19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO19" t="n">
         <v>15</v>
@@ -3886,28 +3953,28 @@
         <v>25</v>
       </c>
       <c r="AT19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU19" t="n">
         <v>28</v>
       </c>
       <c r="AV19" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AW19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY19" t="n">
         <v>24</v>
       </c>
       <c r="AZ19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BB19" t="n">
         <v>29</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-3-2011-12</t>
+          <t>2012-01-03</t>
         </is>
       </c>
     </row>
@@ -4020,28 +4087,28 @@
         <v>-3</v>
       </c>
       <c r="AD20" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE20" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AF20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH20" t="n">
         <v>3</v>
       </c>
       <c r="AI20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL20" t="n">
         <v>29</v>
@@ -4071,10 +4138,10 @@
         <v>1</v>
       </c>
       <c r="AU20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW20" t="n">
         <v>28</v>
@@ -4086,7 +4153,7 @@
         <v>29</v>
       </c>
       <c r="AZ20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA20" t="n">
         <v>23</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-3-2011-12</t>
+          <t>2012-01-03</t>
         </is>
       </c>
     </row>
@@ -4202,16 +4269,16 @@
         <v>-2.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE21" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AF21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH21" t="n">
         <v>3</v>
@@ -4232,13 +4299,13 @@
         <v>2</v>
       </c>
       <c r="AN21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO21" t="n">
         <v>1</v>
       </c>
       <c r="AP21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ21" t="n">
         <v>6</v>
@@ -4256,7 +4323,7 @@
         <v>25</v>
       </c>
       <c r="AV21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW21" t="n">
         <v>12</v>
@@ -4271,10 +4338,10 @@
         <v>29</v>
       </c>
       <c r="BA21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB21" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BC21" t="n">
         <v>19</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-3-2011-12</t>
+          <t>2012-01-03</t>
         </is>
       </c>
     </row>
@@ -4306,82 +4373,82 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E22" t="n">
         <v>5</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>0.714</v>
+        <v>0.833</v>
       </c>
       <c r="H22" t="n">
         <v>48</v>
       </c>
       <c r="I22" t="n">
-        <v>34.7</v>
+        <v>34.5</v>
       </c>
       <c r="J22" t="n">
-        <v>75.3</v>
+        <v>74</v>
       </c>
       <c r="K22" t="n">
-        <v>0.461</v>
+        <v>0.466</v>
       </c>
       <c r="L22" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="M22" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="N22" t="n">
-        <v>0.37</v>
+        <v>0.391</v>
       </c>
       <c r="O22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P22" t="n">
-        <v>27.4</v>
+        <v>28.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.802</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="R22" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S22" t="n">
-        <v>32.4</v>
+        <v>32.8</v>
       </c>
       <c r="T22" t="n">
-        <v>41.4</v>
+        <v>41.7</v>
       </c>
       <c r="U22" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="V22" t="n">
-        <v>16.6</v>
+        <v>17.7</v>
       </c>
       <c r="W22" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X22" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Y22" t="n">
         <v>4</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>21.4</v>
+        <v>22.3</v>
       </c>
       <c r="AB22" t="n">
-        <v>98.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -4390,31 +4457,31 @@
         <v>1</v>
       </c>
       <c r="AF22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK22" t="n">
         <v>5</v>
       </c>
-      <c r="AG22" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>18</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>28</v>
-      </c>
-      <c r="AK22" t="n">
+      <c r="AL22" t="n">
         <v>8</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>11</v>
       </c>
       <c r="AM22" t="n">
         <v>14</v>
       </c>
       <c r="AN22" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AO22" t="n">
         <v>3</v>
@@ -4423,40 +4490,40 @@
         <v>6</v>
       </c>
       <c r="AQ22" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AR22" t="n">
         <v>25</v>
       </c>
       <c r="AS22" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AT22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>28</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>18</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ22" t="n">
         <v>22</v>
       </c>
-      <c r="AV22" t="n">
-        <v>27</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>20</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>5</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>23</v>
-      </c>
       <c r="BA22" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BB22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC22" t="n">
         <v>14</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-3-2011-12</t>
+          <t>2012-01-03</t>
         </is>
       </c>
     </row>
@@ -4566,16 +4633,16 @@
         <v>5.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF23" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AG23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH23" t="n">
         <v>3</v>
@@ -4596,10 +4663,10 @@
         <v>3</v>
       </c>
       <c r="AN23" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AO23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP23" t="n">
         <v>23</v>
@@ -4611,7 +4678,7 @@
         <v>20</v>
       </c>
       <c r="AS23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT23" t="n">
         <v>24</v>
@@ -4620,19 +4687,19 @@
         <v>17</v>
       </c>
       <c r="AV23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW23" t="n">
         <v>27</v>
       </c>
       <c r="AX23" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AY23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AZ23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA23" t="n">
         <v>9</v>
@@ -4641,7 +4708,7 @@
         <v>17</v>
       </c>
       <c r="BC23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-3-2011-12</t>
+          <t>2012-01-03</t>
         </is>
       </c>
     </row>
@@ -4748,16 +4815,16 @@
         <v>10.3</v>
       </c>
       <c r="AD24" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AE24" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AF24" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AG24" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH24" t="n">
         <v>3</v>
@@ -4766,16 +4833,16 @@
         <v>2</v>
       </c>
       <c r="AJ24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK24" t="n">
         <v>2</v>
       </c>
       <c r="AL24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN24" t="n">
         <v>3</v>
@@ -4784,7 +4851,7 @@
         <v>18</v>
       </c>
       <c r="AP24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ24" t="n">
         <v>25</v>
@@ -4799,16 +4866,16 @@
         <v>7</v>
       </c>
       <c r="AU24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW24" t="n">
         <v>6</v>
       </c>
-      <c r="AV24" t="n">
-        <v>9</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>7</v>
-      </c>
       <c r="AX24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY24" t="n">
         <v>17</v>
@@ -4817,13 +4884,13 @@
         <v>13</v>
       </c>
       <c r="BA24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB24" t="n">
         <v>2</v>
       </c>
       <c r="BC24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-3-2011-12</t>
+          <t>2012-01-03</t>
         </is>
       </c>
     </row>
@@ -4930,16 +4997,16 @@
         <v>-1</v>
       </c>
       <c r="AD25" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE25" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AF25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH25" t="n">
         <v>3</v>
@@ -4948,7 +5015,7 @@
         <v>21</v>
       </c>
       <c r="AJ25" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AK25" t="n">
         <v>23</v>
@@ -4960,7 +5027,7 @@
         <v>6</v>
       </c>
       <c r="AN25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO25" t="n">
         <v>18</v>
@@ -4975,10 +5042,10 @@
         <v>11</v>
       </c>
       <c r="AS25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT25" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AU25" t="n">
         <v>18</v>
@@ -4987,13 +5054,13 @@
         <v>3</v>
       </c>
       <c r="AW25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX25" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AY25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ25" t="n">
         <v>6</v>
@@ -5002,10 +5069,10 @@
         <v>6</v>
       </c>
       <c r="BB25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-3-2011-12</t>
+          <t>2012-01-03</t>
         </is>
       </c>
     </row>
@@ -5034,25 +5101,25 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F26" t="n">
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="H26" t="n">
         <v>48</v>
       </c>
       <c r="I26" t="n">
-        <v>37.2</v>
+        <v>38</v>
       </c>
       <c r="J26" t="n">
-        <v>83</v>
+        <v>84.8</v>
       </c>
       <c r="K26" t="n">
         <v>0.448</v>
@@ -5061,76 +5128,76 @@
         <v>6</v>
       </c>
       <c r="M26" t="n">
-        <v>17.4</v>
+        <v>18</v>
       </c>
       <c r="N26" t="n">
-        <v>0.345</v>
+        <v>0.333</v>
       </c>
       <c r="O26" t="n">
-        <v>21.6</v>
+        <v>19.8</v>
       </c>
       <c r="P26" t="n">
-        <v>26.4</v>
+        <v>24</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.823</v>
       </c>
       <c r="R26" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="S26" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="T26" t="n">
-        <v>47.2</v>
+        <v>47.5</v>
       </c>
       <c r="U26" t="n">
-        <v>21.8</v>
+        <v>22.3</v>
       </c>
       <c r="V26" t="n">
-        <v>15.4</v>
+        <v>17</v>
       </c>
       <c r="W26" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="X26" t="n">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="Z26" t="n">
-        <v>21.4</v>
+        <v>22.8</v>
       </c>
       <c r="AA26" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>102</v>
+        <v>101.8</v>
       </c>
       <c r="AC26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE26" t="n">
         <v>8</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>4</v>
       </c>
       <c r="AF26" t="n">
         <v>1</v>
       </c>
       <c r="AG26" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AH26" t="n">
         <v>3</v>
       </c>
       <c r="AI26" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AJ26" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AK26" t="n">
         <v>15</v>
@@ -5142,22 +5209,22 @@
         <v>17</v>
       </c>
       <c r="AN26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO26" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AP26" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AQ26" t="n">
         <v>2</v>
       </c>
       <c r="AR26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT26" t="n">
         <v>2</v>
@@ -5166,19 +5233,19 @@
         <v>10</v>
       </c>
       <c r="AV26" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AW26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX26" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AY26" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="BA26" t="n">
         <v>7</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-3-2011-12</t>
+          <t>2012-01-03</t>
         </is>
       </c>
     </row>
@@ -5216,94 +5283,94 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E27" t="n">
         <v>2</v>
       </c>
       <c r="F27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G27" t="n">
-        <v>0.333</v>
+        <v>0.4</v>
       </c>
       <c r="H27" t="n">
         <v>48</v>
       </c>
       <c r="I27" t="n">
-        <v>33.3</v>
+        <v>33.2</v>
       </c>
       <c r="J27" t="n">
-        <v>82.3</v>
+        <v>82.2</v>
       </c>
       <c r="K27" t="n">
-        <v>0.405</v>
+        <v>0.404</v>
       </c>
       <c r="L27" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="M27" t="n">
-        <v>20</v>
+        <v>19.2</v>
       </c>
       <c r="N27" t="n">
-        <v>0.358</v>
+        <v>0.354</v>
       </c>
       <c r="O27" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="P27" t="n">
-        <v>29.3</v>
+        <v>30.6</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.67</v>
+        <v>0.647</v>
       </c>
       <c r="R27" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="S27" t="n">
+        <v>28</v>
+      </c>
+      <c r="T27" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="U27" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="V27" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="W27" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="X27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>93</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>-5.8</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF27" t="n">
         <v>15</v>
       </c>
-      <c r="S27" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="T27" t="n">
-        <v>42.8</v>
-      </c>
-      <c r="U27" t="n">
-        <v>14</v>
-      </c>
-      <c r="V27" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="W27" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="X27" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>93.5</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>-7.7</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>26</v>
-      </c>
       <c r="AG27" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AH27" t="n">
         <v>3</v>
@@ -5318,22 +5385,22 @@
         <v>27</v>
       </c>
       <c r="AL27" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AM27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN27" t="n">
         <v>14</v>
       </c>
       <c r="AO27" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AP27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AQ27" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AR27" t="n">
         <v>2</v>
@@ -5342,34 +5409,34 @@
         <v>26</v>
       </c>
       <c r="AT27" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AU27" t="n">
         <v>30</v>
       </c>
       <c r="AV27" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AW27" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AX27" t="n">
         <v>26</v>
       </c>
       <c r="AY27" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AZ27" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BB27" t="n">
         <v>18</v>
       </c>
       <c r="BC27" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-3-2011-12</t>
+          <t>2012-01-03</t>
         </is>
       </c>
     </row>
@@ -5476,13 +5543,13 @@
         <v>4.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE28" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF28" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AG28" t="n">
         <v>9</v>
@@ -5491,7 +5558,7 @@
         <v>3</v>
       </c>
       <c r="AI28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ28" t="n">
         <v>4</v>
@@ -5506,37 +5573,37 @@
         <v>9</v>
       </c>
       <c r="AN28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP28" t="n">
         <v>22</v>
       </c>
       <c r="AQ28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR28" t="n">
         <v>16</v>
       </c>
       <c r="AS28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT28" t="n">
         <v>22</v>
       </c>
       <c r="AU28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW28" t="n">
         <v>22</v>
       </c>
       <c r="AX28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY28" t="n">
         <v>25</v>
@@ -5545,13 +5612,13 @@
         <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB28" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BC28" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-3-2011-12</t>
+          <t>2012-01-03</t>
         </is>
       </c>
     </row>
@@ -5658,22 +5725,22 @@
         <v>-2.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE29" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AF29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH29" t="n">
         <v>3</v>
       </c>
       <c r="AI29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ29" t="n">
         <v>30</v>
@@ -5688,16 +5755,16 @@
         <v>22</v>
       </c>
       <c r="AN29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP29" t="n">
         <v>26</v>
       </c>
       <c r="AQ29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR29" t="n">
         <v>30</v>
@@ -5715,10 +5782,10 @@
         <v>19</v>
       </c>
       <c r="AW29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AX29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY29" t="n">
         <v>1</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-3-2011-12</t>
+          <t>2012-01-03</t>
         </is>
       </c>
     </row>
@@ -5762,106 +5829,106 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30" t="n">
         <v>3</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
       </c>
       <c r="I30" t="n">
-        <v>34</v>
+        <v>34.4</v>
       </c>
       <c r="J30" t="n">
-        <v>79.8</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>0.426</v>
+        <v>0.416</v>
       </c>
       <c r="L30" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M30" t="n">
-        <v>14.8</v>
+        <v>15.2</v>
       </c>
       <c r="N30" t="n">
-        <v>0.27</v>
+        <v>0.276</v>
       </c>
       <c r="O30" t="n">
         <v>18.2</v>
       </c>
       <c r="P30" t="n">
-        <v>25.2</v>
+        <v>24.6</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.722</v>
+        <v>0.74</v>
       </c>
       <c r="R30" t="n">
-        <v>11.3</v>
+        <v>11.6</v>
       </c>
       <c r="S30" t="n">
-        <v>31.3</v>
+        <v>29.6</v>
       </c>
       <c r="T30" t="n">
-        <v>42.7</v>
+        <v>41.2</v>
       </c>
       <c r="U30" t="n">
-        <v>19.5</v>
+        <v>18.6</v>
       </c>
       <c r="V30" t="n">
-        <v>14.5</v>
+        <v>12.6</v>
       </c>
       <c r="W30" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="X30" t="n">
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
       <c r="Y30" t="n">
         <v>4.8</v>
       </c>
       <c r="Z30" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="AA30" t="n">
-        <v>21.2</v>
+        <v>21.6</v>
       </c>
       <c r="AB30" t="n">
-        <v>90.2</v>
+        <v>91.2</v>
       </c>
       <c r="AC30" t="n">
-        <v>-6.3</v>
+        <v>-10</v>
       </c>
       <c r="AD30" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AE30" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AF30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG30" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AH30" t="n">
         <v>3</v>
       </c>
       <c r="AI30" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ30" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="AK30" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AL30" t="n">
         <v>27</v>
@@ -5870,52 +5937,52 @@
         <v>25</v>
       </c>
       <c r="AN30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO30" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AP30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ30" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AR30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AS30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AT30" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AU30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV30" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="AW30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX30" t="n">
         <v>1</v>
       </c>
       <c r="AY30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB30" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BC30" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-3-2011-12</t>
+          <t>2012-01-03</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-12.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE31" t="n">
         <v>30</v>
@@ -6052,16 +6119,16 @@
         <v>27</v>
       </c>
       <c r="AN31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR31" t="n">
         <v>23</v>
@@ -6076,22 +6143,22 @@
         <v>29</v>
       </c>
       <c r="AV31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY31" t="n">
         <v>14</v>
       </c>
       <c r="AZ31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA31" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BB31" t="n">
         <v>30</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-3-2011-12</t>
+          <t>2012-01-03</t>
         </is>
       </c>
     </row>
